--- a/doc/202507スキルシート.xlsx
+++ b/doc/202507スキルシート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小山菜月\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\resume\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477E050-5DBA-4B67-B291-A266E48E47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1019F391-0D50-4269-AB3C-E8B2A953E964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
   <si>
     <t>スキルシート</t>
   </si>
@@ -302,6 +302,923 @@
     <rPh sb="7" eb="10">
       <t>キニュウレイ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出羽 和之 (でわ かずゆき)</t>
+    <rPh sb="0" eb="2">
+      <t>デワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カズユキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>大阪府立大学大学院 情報工学分野専攻 博士前期課程修了</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ネットワークスペシャリスト, アプリケーションエンジニア</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Spring Boot/Kotlin(Java)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>週5日</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Webアプリケーションサーバーサイド開発、DB設計/パフォーマンスチューニング</t>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>要件定義からアプリケーション実装、テストまで一連の作業を自立して推進できます</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジリツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>スイシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>個人事業主</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジギョウヌシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャリアの前半ではSIerとして上流工程を経験し、フリーランスになってからは設計・実装といった中下流工程のスキルを磨いてきておりますので、特にサーバーサイドについては独力で設計からプロダクトリリースまで行えます。
+Webフロントエンド実装についても、関わったプロジェクトで概ねサーバー開発とともに並行して遂行してきており、フレームワークやライブラリー固有の知識はサーバーサイドに比べると薄いもののリーダーの下で作業することについては問題ないと考えております。</t>
+    <rPh sb="5" eb="7">
+      <t>ゼンハン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カリュウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ミガ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ドクリョク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■船舶業務システムの社員管理機能新規開発</t>
+    <rPh sb="1" eb="3">
+      <t>センパク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>別会社が開発していたシステムのリプレースに伴う新規開発
+≪担当業務≫
+Spring Boot/Kotlin(back)とThymeleaf/jQueryベースライブラリー(web front)を用いた社員情報編集・検索Webサービスの新規開発。
+既存のDBスキーマからデータを取得するためのSQL/JPQLクエリー構築。
+≪習得スキル≫
+- bundlerを利用しないvanilla JSでのES Module利用
+- jQuery
+- JSにVSCode上で型付けして開発する手法
+≪コメント≫
+現代において開発対象が複雑でないはずだ/開発者スキルが要求されないはずだからという理由でbundler(を含む開発ツールキット)を導入しなかったりTypeScriptを避けるのは最終的には逆効果ではないかと感じました。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ゲンダイ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="269" eb="272">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="276" eb="278">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="302" eb="303">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="338" eb="341">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="343" eb="346">
+      <t>ギャクコウカ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■ニュースWeb配信会社の新機能開発・拡張開発</t>
+    <rPh sb="8" eb="10">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シンキノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MySQL(Cloud SQL)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ubuntu(GKE)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>著名人の定期コラム的配信機能の新規開発と拡張。同機能に対するサブスクリプション課金機能の実装。
+広告配信機能の保守開発。
+≪担当業務≫
+Spring Framework/Java&amp;Kotlin で実装されているサービスへの機能追加。
+決済サービス提供会社との接続。
+Webフロントリプレース(Thymeleaf, CoffeeScript -&gt; Next.js/TypeScript, Apollo)
+≪習得スキル≫
+- Kotlin言語での開発、Java実装からの段階的マイグレーション方法
+- Next.js上でのReact開発
+- GraphQLを用いたアーキテクチャ設計・実装方法
+≪コメント≫
+新しい技術に色々とチャレンジさせていただき、自分の経歴の中で最も充実した期間でした。</t>
+    <rPh sb="0" eb="2">
+      <t>チョメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="233" eb="236">
+      <t>ダンカイテキ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="302" eb="303">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="305" eb="307">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>ケイレキ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■モバイル通信会社 スマートフォン用ミニアプリ/Webサービス開発</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+8名
+開発
+4名
+全体
+12名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+11名
+開発
+8名
+全体
+15名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+10名
+開発
+8名
+全体
+10名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWS ECS上で動作する、Spring Boot, Reactを用いたスマートフォン用ミニアプリ等開発。
+(ミニアプリ: 既存のSPアプリの中で動作する、独立した機能を提供するWebサービス)
+≪担当業務≫
+- 開発環境標準化・ドキュメンテーション
+- Spring Boot BFF開発（OpenID Connect認証含む）
+- Reactを用いたスマートフォン用ミニアプリフロントエンド開発
+- AWS実行環境設計のレビュー/評価
+≪習得スキル≫
+- Scrumでの短期間・反復開発
+≪コメント≫
+チームリーダーがスクラムマスター資格を取得している方で、しっかり本質を学べました。このプロジェクト以降もスクラム(風)開発は行っているのですが、ここでの体験が生きています。</t>
+    <rPh sb="62" eb="64">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="237" eb="240">
+      <t>タンキカン</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ホンシツ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="310" eb="311">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="315" eb="316">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="329" eb="331">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■ISP事業会社Webサービスサーバサイド開発</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java EE アプリケーション開発基盤の整備、イントラでのCI/CD基盤開発、Spring Bootでのアプリケーションマイグレーション。
+≪担当業務≫
+- Java EE開発環境や開発標準のドキュメント整備
+- イントラで完結するCI/CD環境開発
+- Kubernetes(OpenShift)を利用したアプリケーション実行基盤の検討
+- Spring BootでのRESTバックエンドサーバ開発
+≪習得スキル≫
+- Spring Bootを用いた開発
+- Kubernates概念の理解
+- React, TypeScriptを用いたWebフロント開発
+≪コメント≫
+これまでの私の開発スキルがJavaEE(WildFly)だったのですが、このプロジェクトでSpring Boot経験を積ませてもらい、以降Spring Boot開発をメインスキルとしています。</t>
+    <rPh sb="224" eb="225">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+5名
+開発
+5名
+全体
+5名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■商社・金融向けシステム開発</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商社向け取引管理システムおよび銀行リスク計算システムの開発・保守。
+≪担当業務≫
+- 開発環境標準化、CI構築・運用
+- サーバサイド(JavaEE7)およびクライアントサイド(GWT)開発
+- データモデリング、パフォーマンスチューニング
+≪習得スキル≫
+- JavaEE(JBoss, WildFly)を用いたWebサービス開発
+- GitLab上での開発フロー標準策定・実行
+≪コメント≫
+前職非直属上司のプロジェクトです。</t>
+    <rPh sb="154" eb="155">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ゼンショク</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>チョクゾク</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>ジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>■証券会社向け株式取引システムの保守開発</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>証券会社向け株式取引システムの保守・開発および再構築プロジェクト。東証システム更改に合わせた高性能・高拡張性のシステム開発。
+≪担当業務≫
+- クライアントアプリケーション開発チーム（8名）のマネジメント
+- アーキテクチャ設計、データモデリング(UML)、DB設計
+- Java(Swing)およびC言語によるGUIアプリケーション開発
+- パフォーマンス測定・改善
+≪習得スキル≫
+- ビジネスサービスのプロダクト開発における一連の作業
+- オブジェクト指向設計
+- UML
+- Java
+≪コメント≫
+新日鉄ソリューションズ株式会社（現・日鉄ソリューションズ）に会社員として所属していた時代のものです。</t>
+    <rPh sb="50" eb="51">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="284" eb="287">
+      <t>カイシャイン</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="296" eb="298">
+      <t>ジダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Kotlin
+JavaScript
+SQL
+HTML</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolin
+Java
+TypeScript
+CoffeeScript
+SQL
+HTML
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MySQL(RDS)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Spring Boot
+jQuery
+Redis</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Spring Framework
+Next.js/React
+Redis</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Java
+TypeScript
+SQL
+HTML
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Spring Boot
+React
+Redis</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SybaseASE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WildFly
+Spring Boot
+Docker
+Jenkins
+Ansible
+LINE Messaging API</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java
+React
+HTML</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+17名
+開発
+12名
+全体
+17名</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java
+SQL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PostgreSQL
+SQL Server</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Solaris</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>RHEL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Multi Platform
+(顧客指定)</t>
+    <rPh sb="16" eb="18">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ubuntu(ECS)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ubuntu(EC2)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C
+VB6
+C#.NET
+Java</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SourcePro
+MFC
+</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WildFly(JbossAS)
+GWT
+GitLab</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>チーム
+30名
+開発
+25名
+全体
+50名</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1569,6 +2486,88 @@
       <alignment horizontal="center" vertical="top" textRotation="255"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1577,18 +2576,134 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1613,207 +2728,224 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1830,223 +2962,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4773,8 +5690,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y55" sqref="Y55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4794,62 +5711,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="59" t="s">
+        <v>69</v>
+      </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -4858,203 +5781,217 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="32"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="59" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="40" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="53" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" spans="1:17" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="56"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
@@ -5078,1431 +6015,1868 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64">
+      <c r="A13" s="39">
         <v>1</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="37">
+        <v>45566</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="37">
+        <v>45748</v>
+      </c>
       <c r="E13" s="12" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
+      <c r="G13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="55">
+      <c r="A16" s="42"/>
+      <c r="B16" s="44">
         <f>DATEDIF(B13,D13,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64">
+      <c r="A17" s="39">
         <v>2</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="37">
+        <v>44562</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="37">
+        <v>45536</v>
+      </c>
       <c r="E17" s="12" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="G17" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
+        <v>76</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="55">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44">
         <f>DATEDIF(B17,D17,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
+        <v>33</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64">
+      <c r="A21" s="39">
         <v>3</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="37">
+        <v>44013</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="37">
+        <v>44440</v>
+      </c>
       <c r="E21" s="12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
+      <c r="G21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
+        <v>81</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
-      <c r="B24" s="55">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44">
         <f>DATEDIF(B21,D21,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="39">
         <v>4</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="37">
+        <v>43132</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="37">
+        <v>43891</v>
+      </c>
       <c r="E25" s="12" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
+      <c r="G25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
-      <c r="B28" s="55">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44">
         <f>DATEDIF(B25,D25,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64">
+      <c r="A29" s="39">
         <v>5</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="37">
+        <v>40391</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="37">
+        <v>42887</v>
+      </c>
       <c r="E29" s="12" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
+      <c r="G29" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
+        <v>86</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
-      <c r="B32" s="55">
+      <c r="A32" s="42"/>
+      <c r="B32" s="44">
         <f>DATEDIF(B29,D29,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64">
+      <c r="A33" s="39">
         <v>6</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="37">
+        <v>37712</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="37">
+        <v>40057</v>
+      </c>
       <c r="E33" s="12" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
+      <c r="G33" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="65"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="55">
+      <c r="A36" s="42"/>
+      <c r="B36" s="44">
         <f>DATEDIF(B33,D33,"M")+1</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
+        <v>78</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64">
+      <c r="A37" s="39">
         <v>7</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="62"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="65"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
-      <c r="B40" s="55">
+      <c r="A40" s="42"/>
+      <c r="B40" s="44">
         <f>DATEDIF(B37,D37,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64">
+      <c r="A41" s="39">
         <v>8</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="65"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
-      <c r="B44" s="55">
+      <c r="A44" s="42"/>
+      <c r="B44" s="44">
         <f>DATEDIF(B41,D41,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="39">
         <v>9</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="13"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="65"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
-      <c r="B48" s="55">
+      <c r="A48" s="42"/>
+      <c r="B48" s="44">
         <f>DATEDIF(B45,D45,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64">
+      <c r="A49" s="39">
         <v>10</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
     </row>
     <row r="50" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
     </row>
     <row r="51" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="65"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
     </row>
     <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="55">
+      <c r="A52" s="42"/>
+      <c r="B52" s="44">
         <f>DATEDIF(B49,D49,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64">
+      <c r="A53" s="39">
         <v>11</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
     </row>
     <row r="54" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="58" t="s">
+      <c r="F54" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
     </row>
     <row r="55" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="65"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
     </row>
     <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
-      <c r="B56" s="55">
+      <c r="A56" s="42"/>
+      <c r="B56" s="44">
         <f>DATEDIF(B53,D53,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64">
+      <c r="A57" s="39">
         <v>12</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="13"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
     </row>
     <row r="58" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
     </row>
     <row r="59" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="65"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="75"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
     </row>
     <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="55">
+      <c r="A60" s="42"/>
+      <c r="B60" s="44">
         <f>DATEDIF(B57,D57,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="39">
         <v>13</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F61" s="13"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
     </row>
     <row r="62" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="58" t="s">
+      <c r="F62" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
     </row>
     <row r="63" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="65"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
     </row>
     <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="55">
+      <c r="A64" s="42"/>
+      <c r="B64" s="44">
         <f>DATEDIF(B61,D61,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64">
+      <c r="A65" s="39">
         <v>14</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="16"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F65" s="13"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="75"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="58" t="s">
+      <c r="F66" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="62"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="75"/>
-      <c r="P66" s="75"/>
-      <c r="Q66" s="75"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
     </row>
     <row r="67" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="30"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
     </row>
     <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
-      <c r="B68" s="55">
+      <c r="A68" s="42"/>
+      <c r="B68" s="44">
         <f>DATEDIF(B65,D65,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="76"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
     <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="39">
         <v>15</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
     </row>
     <row r="70" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="58" t="s">
+      <c r="F70" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="62"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
     </row>
     <row r="71" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="65"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="30"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
     </row>
     <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
-      <c r="B72" s="55">
+      <c r="A72" s="42"/>
+      <c r="B72" s="44">
         <f>DATEDIF(B69,D69,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="76"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
     <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64">
+      <c r="A73" s="39">
         <v>16</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="16"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
     </row>
     <row r="74" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="58" t="s">
+      <c r="F74" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G74" s="62"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="75"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
     </row>
     <row r="75" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="65"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="30"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
     </row>
     <row r="76" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="67"/>
-      <c r="B76" s="68">
+      <c r="A76" s="41"/>
+      <c r="B76" s="43">
         <f>DATEDIF(B73,D73,"M")+1</f>
         <v>1</v>
       </c>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="C9:Q10"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="K69:K72"/>
+    <mergeCell ref="L73:L76"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="M45:M48"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="L69:L72"/>
+    <mergeCell ref="M73:M76"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="M53:M56"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N37:N40"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="N45:N48"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M72"/>
+    <mergeCell ref="N73:N76"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="O33:O36"/>
+    <mergeCell ref="O37:O40"/>
+    <mergeCell ref="O41:O44"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="N49:N52"/>
+    <mergeCell ref="N53:N56"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="N69:N72"/>
+    <mergeCell ref="O73:O76"/>
+    <mergeCell ref="O49:O52"/>
+    <mergeCell ref="O53:O56"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P49:P52"/>
+    <mergeCell ref="P53:P56"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="P45:P48"/>
     <mergeCell ref="P61:P64"/>
     <mergeCell ref="P65:P68"/>
     <mergeCell ref="P69:P72"/>
@@ -6527,303 +7901,6 @@
     <mergeCell ref="Q37:Q40"/>
     <mergeCell ref="Q41:Q44"/>
     <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="P49:P52"/>
-    <mergeCell ref="P53:P56"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M72"/>
-    <mergeCell ref="N73:N76"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="O33:O36"/>
-    <mergeCell ref="O37:O40"/>
-    <mergeCell ref="O41:O44"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="N49:N52"/>
-    <mergeCell ref="N53:N56"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="N69:N72"/>
-    <mergeCell ref="O73:O76"/>
-    <mergeCell ref="O49:O52"/>
-    <mergeCell ref="O53:O56"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="N37:N40"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="K69:K72"/>
-    <mergeCell ref="L73:L76"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="M45:M48"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="L69:L72"/>
-    <mergeCell ref="M73:M76"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="M53:M56"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="J61:J64"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="J45:J48"/>
-    <mergeCell ref="K73:K76"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="I73:I76"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="I45:I48"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="C9:Q10"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -6834,7 +7911,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" max="16" man="1"/>
@@ -6854,8 +7931,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6875,272 +7952,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="134"/>
+      <c r="H4" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96" t="s">
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
     </row>
     <row r="9" spans="1:17" ht="111.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="107" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="138" t="s">
+      <c r="G10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="138" t="s">
+      <c r="H10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
     </row>
     <row r="11" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="107"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="9" t="s">
         <v>21</v>
       </c>
@@ -7164,16 +8241,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="122">
+      <c r="A12" s="110">
         <v>1</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="114">
         <v>39904</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="114">
         <v>40330</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7182,88 +8259,88 @@
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="108" t="s">
+      <c r="I12" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="114" t="s">
+      <c r="K12" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114" t="s">
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="114" t="s">
+      <c r="Q12" s="80" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="249.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="130" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="142"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="124"/>
-      <c r="B14" s="100">
+      <c r="A14" s="112"/>
+      <c r="B14" s="120">
         <f>DATEDIF(B12,D12,"M")+1</f>
         <v>15</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="123">
+      <c r="A15" s="111">
         <v>2</v>
       </c>
-      <c r="B15" s="126">
+      <c r="B15" s="116">
         <v>39295</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="122">
         <v>39873</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -7272,262 +8349,361 @@
       <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="111" t="s">
+      <c r="H15" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="120" t="s">
+      <c r="I15" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="109" t="s">
+      <c r="L15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="109" t="s">
+      <c r="O15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="117" t="s">
+      <c r="P15" s="83"/>
+      <c r="Q15" s="123" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="249.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="123"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="130" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="117"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="123"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="100">
+      <c r="A17" s="112"/>
+      <c r="B17" s="120">
         <f>DATEDIF(B15,D15,"M")+1</f>
         <v>20</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="124"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="125">
+      <c r="A18" s="113">
         <v>3</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="106"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="119"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="78"/>
     </row>
     <row r="19" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="125"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="119"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="78"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="125"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="119"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="78"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="125">
+      <c r="A21" s="113">
         <v>4</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="106"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="119"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="78"/>
     </row>
     <row r="22" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="125"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="119"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="78"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="125"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="119"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="78"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="125">
+      <c r="A24" s="113">
         <v>5</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="106"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="119"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="78"/>
     </row>
     <row r="25" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="125"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="119"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="78"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="125"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="119"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
     <mergeCell ref="Q21:Q23"/>
     <mergeCell ref="Q24:Q26"/>
     <mergeCell ref="A10:D11"/>
@@ -7552,105 +8728,6 @@
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
@@ -7661,7 +8738,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.16" right="0.16" top="0.55000000000000004" bottom="0.16" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
